--- a/form.xlsx
+++ b/form.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -79,9 +78,6 @@
     <t xml:space="preserve"> पूरा नाम</t>
   </si>
   <si>
-    <t>ग्रमीण/शहरी</t>
-  </si>
-  <si>
     <t>कार्य अनुभव( वर्षों में)</t>
   </si>
   <si>
@@ -194,6 +190,9 @@
   </si>
   <si>
     <t>radio</t>
+  </si>
+  <si>
+    <t>ग्रामीण/शहरी</t>
   </si>
 </sst>
 </file>
@@ -641,7 +640,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -678,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -686,13 +685,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -700,13 +699,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -714,22 +713,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -737,13 +736,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -751,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -771,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -785,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -799,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -813,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -827,16 +826,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -844,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -858,10 +857,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -869,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>11</v>
@@ -880,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -891,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>14</v>
@@ -902,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>15</v>
@@ -913,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>16</v>
@@ -924,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>17</v>
@@ -935,13 +934,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
